--- a/topo_alarm/topo.xlsx
+++ b/topo_alarm/topo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/22205/Desktop/topo_alarm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF29F6D-E174-B549-8D5B-6FED24C5F3F9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B261C65A-75A0-464B-B2E9-3AEC86189B04}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="56">
   <si>
     <t>PathID</t>
   </si>
@@ -225,6 +225,12 @@
   </si>
   <si>
     <t>C052B_C00922OD_KGBAHARUCHENOR</t>
+  </si>
+  <si>
+    <t>E Node</t>
+  </si>
+  <si>
+    <t>BTS</t>
   </si>
 </sst>
 </file>
@@ -590,7 +596,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1008,7 +1014,7 @@
         <v>10</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="3" t="e">
@@ -1068,7 +1074,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="3" t="e">

--- a/topo_alarm/topo.xlsx
+++ b/topo_alarm/topo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/22205/Desktop/topo_alarm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B261C65A-75A0-464B-B2E9-3AEC86189B04}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13AE0DF-C363-B84F-A6B2-D6560BA6B14A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
   <si>
     <t>PathID</t>
   </si>
@@ -71,10 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DHU89_DJKIEKL6_OI_PEOYFNEKL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EIIR8_SIKWEUDE_WE_CKDIEKWOF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -100,26 +96,6 @@
   </si>
   <si>
     <t>SUEI6_SOLDEIW4_SIOWIIDIICKKDE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DUEDFR WDDRFV LO WSDFTG WIE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FIEOOW FUR OW DFFOWW VORLWP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RER DKEWOW TIE WS CIDEO GIWIVW GEPGE 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DKE GIELW HBWQWG VBVFE 5 FG GIWOFG EWW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DJEEWE GTEEG 4 EO GBFGEE GGEFC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -593,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -634,7 +610,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="5">
         <v>6</v>
@@ -649,10 +625,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="5">
         <v>7</v>
@@ -667,10 +643,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="5">
         <v>8</v>
@@ -685,10 +661,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="5">
         <v>9</v>
@@ -706,7 +682,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="5">
         <v>10</v>
@@ -721,16 +697,16 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C7" s="5">
         <v>11</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="3" t="e">
@@ -739,110 +715,115 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" s="5">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="3" t="e">
+        <f>VLOOKUP(E:E,B:B,1,0)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" s="5">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="3" t="e">
+        <f>VLOOKUP(E:E,B:B,1,0)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" s="5">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="3" t="e">
+        <f>VLOOKUP(E:E,B:B,1,0)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" s="5">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="3" t="e">
+        <f>VLOOKUP(E:E,B:B,1,0)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C12" s="5">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="3" t="e">
+        <f>VLOOKUP(E:E,B:B,1,0)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="3" t="e">
-        <f t="shared" ref="F13:F32" si="0">VLOOKUP(E:E,B:B,1,0)</f>
+        <f>VLOOKUP(E:E,B:B,1,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G13" s="5"/>
@@ -851,20 +832,20 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C14" s="5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(E:E,B:B,1,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G14" s="5"/>
@@ -873,20 +854,20 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" s="5">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(E:E,B:B,1,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G15" s="5"/>
@@ -895,20 +876,20 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C16" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(E:E,B:B,1,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G16" s="5"/>
@@ -917,20 +898,20 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C17" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(E:E,B:B,1,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G17" s="5"/>
@@ -939,20 +920,20 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C18" s="5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(E:E,B:B,1,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G18" s="5"/>
@@ -961,20 +942,20 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C19" s="5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(E:E,B:B,1,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G19" s="5"/>
@@ -983,20 +964,19 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C20" s="5">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="5"/>
+        <v>33</v>
+      </c>
       <c r="F20" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(E:E,B:B,1,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G20" s="5"/>
@@ -1005,20 +985,19 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="C21" s="5">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="5"/>
+        <v>34</v>
+      </c>
       <c r="F21" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(E:E,B:B,1,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G21" s="5"/>
@@ -1027,218 +1006,125 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C22" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="5"/>
+        <v>33</v>
+      </c>
       <c r="F22" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(E:E,B:B,1,0)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C23" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="5"/>
+        <v>35</v>
+      </c>
       <c r="F23" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(E:E,B:B,1,0)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C24" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="5"/>
+        <v>36</v>
+      </c>
       <c r="F24" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(E:E,B:B,1,0)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F25" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(E:E,B:B,1,0)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C26" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F26" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(E:E,B:B,1,0)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C27" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F27" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(E:E,B:B,1,0)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="5">
-        <v>2</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F28" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
+      <c r="A28" s="4"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="5">
-        <v>1</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F29" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
+      <c r="A29" s="4"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="5">
-        <v>0</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F30" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="5">
-        <v>1</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F31" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="5">
-        <v>0</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F32" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="4"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
+      <c r="A30" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B12">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="B1:B7">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/topo_alarm/topo.xlsx
+++ b/topo_alarm/topo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/22205/Desktop/topo_alarm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13AE0DF-C363-B84F-A6B2-D6560BA6B14A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9ACEEA-5847-8947-AE6A-217258A71235}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="54">
   <si>
     <t>PathID</t>
   </si>
@@ -99,10 +99,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DJKLERWOOBO RE FDLEGHOWPFF 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FJERFE GHEGE - FGJLK 3E</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -111,10 +107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DET Eiewo 2E - Jdsaw 2G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EWR Iklwq 0T - Wfdsl 2D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -135,26 +127,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DJEEWE GTEEG 4 EO GBFGEE GGEFC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DJKLERWOOBO RE FDLEGHOWPFF 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DJLKE 3E - GJKLEW GJLEW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UJ EL Gfdeer - Oe Drewlk Lfdswr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RE Or Egldfg Hfeeww - TR Wfdsfr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DHU89_DJKIEKL6_OI_PEOYFNEKL</t>
   </si>
   <si>
@@ -191,22 +163,55 @@
     <t>EIIR8_SIKWEUDE_WE_CKDIEKWOF</t>
   </si>
   <si>
-    <t>YUOYIUGTF</t>
-  </si>
-  <si>
     <t>DYOODIEE</t>
   </si>
   <si>
     <t>NHK</t>
   </si>
   <si>
-    <t>C052B_C00922OD_KGBAHARUCHENOR</t>
-  </si>
-  <si>
     <t>E Node</t>
   </si>
   <si>
     <t>BTS</t>
+  </si>
+  <si>
+    <t>YUOYIUGT</t>
+  </si>
+  <si>
+    <t>UVUUD_SLEEF</t>
+  </si>
+  <si>
+    <t>GGEDX_BGREW</t>
+  </si>
+  <si>
+    <t>GJKLJLEE</t>
+  </si>
+  <si>
+    <t>BKGIEIEW</t>
+  </si>
+  <si>
+    <t>PVOSWIRF</t>
+  </si>
+  <si>
+    <t>VDHJWQO</t>
+  </si>
+  <si>
+    <t>DJKLERWOOBO R</t>
+  </si>
+  <si>
+    <t>DET Eiewo 2E - J</t>
+  </si>
+  <si>
+    <t>DJEEWE GTEEG 4</t>
+  </si>
+  <si>
+    <t>UJ EL Gfdeer - O</t>
+  </si>
+  <si>
+    <t>RE Or Egldfg H</t>
+  </si>
+  <si>
+    <t>C052B_C00922</t>
   </si>
 </sst>
 </file>
@@ -282,7 +287,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -569,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -610,7 +625,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C2" s="5">
         <v>6</v>
@@ -628,7 +643,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="5">
         <v>7</v>
@@ -646,7 +661,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="5">
         <v>8</v>
@@ -664,7 +679,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C5" s="5">
         <v>9</v>
@@ -682,7 +697,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="5">
         <v>10</v>
@@ -697,7 +712,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>7</v>
@@ -715,10 +730,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" s="5">
         <v>2</v>
@@ -728,7 +743,7 @@
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="3" t="e">
-        <f>VLOOKUP(E:E,B:B,1,0)</f>
+        <f t="shared" ref="F8:F31" si="0">VLOOKUP(E:E,B:B,1,0)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -737,7 +752,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" s="5">
         <v>3</v>
@@ -747,7 +762,7 @@
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="3" t="e">
-        <f>VLOOKUP(E:E,B:B,1,0)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -756,7 +771,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" s="5">
         <v>4</v>
@@ -766,7 +781,7 @@
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="3" t="e">
-        <f>VLOOKUP(E:E,B:B,1,0)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -775,7 +790,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" s="5">
         <v>5</v>
@@ -785,7 +800,7 @@
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="3" t="e">
-        <f>VLOOKUP(E:E,B:B,1,0)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -794,7 +809,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C12" s="5">
         <v>6</v>
@@ -804,7 +819,7 @@
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="3" t="e">
-        <f>VLOOKUP(E:E,B:B,1,0)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -813,7 +828,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C13" s="5">
         <v>7</v>
@@ -823,7 +838,7 @@
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="3" t="e">
-        <f>VLOOKUP(E:E,B:B,1,0)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="G13" s="5"/>
@@ -835,7 +850,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="5">
         <v>8</v>
@@ -845,7 +860,7 @@
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="3" t="e">
-        <f>VLOOKUP(E:E,B:B,1,0)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="G14" s="5"/>
@@ -857,7 +872,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C15" s="5">
         <v>9</v>
@@ -867,7 +882,7 @@
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="3" t="e">
-        <f>VLOOKUP(E:E,B:B,1,0)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="G15" s="5"/>
@@ -879,17 +894,17 @@
         <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="5">
         <v>10</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="3" t="e">
-        <f>VLOOKUP(E:E,B:B,1,0)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="G16" s="5"/>
@@ -901,7 +916,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C17" s="5">
         <v>0</v>
@@ -911,7 +926,7 @@
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="3" t="e">
-        <f>VLOOKUP(E:E,B:B,1,0)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="G17" s="5"/>
@@ -923,7 +938,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="C18" s="5">
         <v>1</v>
@@ -933,7 +948,7 @@
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="3" t="e">
-        <f>VLOOKUP(E:E,B:B,1,0)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="G18" s="5"/>
@@ -945,17 +960,17 @@
         <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C19" s="5">
         <v>2</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="3" t="e">
-        <f>VLOOKUP(E:E,B:B,1,0)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="G19" s="5"/>
@@ -964,19 +979,19 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C20" s="5">
         <v>5</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F20" s="3" t="e">
-        <f>VLOOKUP(E:E,B:B,1,0)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="G20" s="5"/>
@@ -985,19 +1000,19 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C21" s="5">
         <v>4</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F21" s="3" t="e">
-        <f>VLOOKUP(E:E,B:B,1,0)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="G21" s="5"/>
@@ -1006,125 +1021,191 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="C22" s="5">
         <v>3</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F22" s="3" t="e">
-        <f>VLOOKUP(E:E,B:B,1,0)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C23" s="5">
         <v>2</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F23" s="3" t="e">
-        <f>VLOOKUP(E:E,B:B,1,0)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C24" s="5">
         <v>1</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F24" s="3" t="e">
-        <f>VLOOKUP(E:E,B:B,1,0)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C25" s="5">
         <v>0</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F25" s="3" t="e">
-        <f>VLOOKUP(E:E,B:B,1,0)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C26" s="5">
         <v>1</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F26" s="3" t="e">
-        <f>VLOOKUP(E:E,B:B,1,0)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C27" s="5">
         <v>0</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F27" s="3" t="e">
-        <f>VLOOKUP(E:E,B:B,1,0)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
+      <c r="A28" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
+      <c r="A29" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="5">
+        <v>1</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="4"/>
+      <c r="A30" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="5">
+        <v>1</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B7">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B7">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
